--- a/Main  Analysis.xlsx
+++ b/Main  Analysis.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shreyance\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\BTP\BTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2000" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
   <si>
     <t>Disp (mm)</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Load (N)</t>
+  </si>
+  <si>
+    <t>Strain</t>
   </si>
 </sst>
 </file>
@@ -3089,7 +3092,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-IN" b="1" i="1" baseline="0"/>
-              <a:t> vs Strain</a:t>
+              <a:t> vs Load</a:t>
             </a:r>
             <a:endParaRPr lang="en-IN" b="1" i="1"/>
           </a:p>
@@ -12330,8 +12333,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.19444225721784777"/>
-          <c:y val="0.13099336034323142"/>
+          <c:x val="0.16944225721784778"/>
+          <c:y val="0.18156226046965368"/>
           <c:w val="0.7128073053368329"/>
           <c:h val="0.67269511665024184"/>
         </c:manualLayout>
@@ -15098,7 +15101,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.23380511811023622"/>
-          <c:y val="0.13006526839012381"/>
+          <c:y val="0.17642009350601087"/>
           <c:w val="0.19952821522309713"/>
           <c:h val="0.35556506764088119"/>
         </c:manualLayout>
@@ -15170,6 +15173,448 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Stress</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> vs Strain</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10250240606413616"/>
+          <c:y val="0.16087819865653355"/>
+          <c:w val="0.83234557022875444"/>
+          <c:h val="0.64652206938101364"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4000'!$B$83:$F$83</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.1000000000000003E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0200000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5299999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0400000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.55E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4000'!$B$84:$F$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-52CB-44E6-87A8-6885E8EB2024}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="220935615"/>
+        <c:axId val="220937279"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="220935615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Strain</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="220937279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="220937279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Stress</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> (MPa)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="220935615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -16272,6 +16717,46 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -19923,6 +20408,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -20099,12 +21100,12 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:colOff>205740</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -20120,6 +21121,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>93450</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>69731</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>237226</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>122208</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -20428,8 +21459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="C29" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22003,7 +23034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -26723,15 +27754,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A6" zoomScale="106" zoomScaleNormal="400" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -28286,12 +29318,53 @@
         <v>0.102040816326531</v>
       </c>
     </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" s="1">
+        <v>5.1000000000000003E-6</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1.0200000000000001E-5</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1.5299999999999999E-5</v>
+      </c>
+      <c r="E83" s="1">
+        <v>2.0400000000000001E-5</v>
+      </c>
+      <c r="F83" s="1">
+        <v>2.55E-5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <v>4</v>
+      </c>
+      <c r="F84">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -29190,8 +30263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
